--- a/PayrollProject/templates/HMRC Payroll  NI Input sheet tax year 201920.xlsx
+++ b/PayrollProject/templates/HMRC Payroll  NI Input sheet tax year 201920.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\Desktop\Latest provar zip file\PayrollProject\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018AE8B1-7151-4826-8206-5946611E7D65}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879758DD-07DD-4B12-9BBF-4E17303626E6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12750" windowHeight="4590" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="630" windowWidth="12750" windowHeight="4590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NI2WeeklyCatA" sheetId="2" r:id="rId1"/>
@@ -1718,8 +1718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2899,7 +2899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6BC2FCF-371C-492F-BDB0-3FBAE0B45376}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
